--- a/01.Code/PMIT_bakstage/src/main/resources/configfilemodel/scoreTemplate.xlsx
+++ b/01.Code/PMIT_bakstage/src/main/resources/configfilemodel/scoreTemplate.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21029"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9121C7F5-BAEB-4E22-801A-A01522933E89}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29A48F46-B900-4F48-A382-5D639A2FBA57}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="7">
   <si>
     <t>软通工号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -25,43 +25,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>事务名</t>
+    <t>个人成绩信息表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>维度分数</t>
+    <t>分数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>课程名</t>
+    <t>开班ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>课程成绩</t>
+    <t>类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>事务1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>维度11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>课程1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>课程维度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>事务维度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>个人成绩信息表</t>
+    <t>培训</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -140,7 +120,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -163,93 +143,44 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -589,91 +520,201 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD18"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.21875" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.33203125" style="11" customWidth="1"/>
+    <col min="5" max="5" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:8" ht="41.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="9"/>
-    </row>
-    <row r="2" spans="1:7" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A2" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="7"/>
-    </row>
-    <row r="3" spans="1:7" s="4" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A3" s="3" t="s">
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+    </row>
+    <row r="2" spans="1:8" ht="22.2" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+    </row>
+    <row r="3" spans="1:8" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" s="3" t="s">
+      <c r="D3" s="9" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" s="1">
-        <v>10001</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="1">
-        <v>80</v>
-      </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" s="1">
-        <v>70</v>
+      <c r="E3"/>
+      <c r="F3"/>
+      <c r="G3"/>
+      <c r="H3"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
+        <v>10008617</v>
+      </c>
+      <c r="B4" s="12">
+        <v>15</v>
+      </c>
+      <c r="C4" s="6">
+        <v>66</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
+        <v>10008617</v>
+      </c>
+      <c r="B5" s="12">
+        <v>14</v>
+      </c>
+      <c r="C5" s="6">
+        <v>66</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
+        <v>10008618</v>
+      </c>
+      <c r="B6" s="12">
+        <v>14</v>
+      </c>
+      <c r="C6" s="6">
+        <v>77</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
+        <v>10008619</v>
+      </c>
+      <c r="B7" s="12">
+        <v>14</v>
+      </c>
+      <c r="C7" s="6">
+        <v>77</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
+        <v>10008620</v>
+      </c>
+      <c r="B8" s="12">
+        <v>15</v>
+      </c>
+      <c r="C8" s="6">
+        <v>77</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="8">
+        <v>10008621</v>
+      </c>
+      <c r="B9" s="12">
+        <v>15</v>
+      </c>
+      <c r="C9" s="6">
+        <v>77</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="8">
+        <v>10008622</v>
+      </c>
+      <c r="B10" s="12">
+        <v>15</v>
+      </c>
+      <c r="C10" s="6">
+        <v>77</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="8">
+        <v>10008623</v>
+      </c>
+      <c r="B11" s="12">
+        <v>15</v>
+      </c>
+      <c r="C11" s="6">
+        <v>77</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="8">
+        <v>10008624</v>
+      </c>
+      <c r="B12" s="12">
+        <v>15</v>
+      </c>
+      <c r="C12" s="6">
+        <v>77</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="8">
+        <v>10008625</v>
+      </c>
+      <c r="B13" s="12">
+        <v>15</v>
+      </c>
+      <c r="C13" s="6">
+        <v>77</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A1:D1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/01.Code/PMIT_bakstage/src/main/resources/configfilemodel/scoreTemplate.xlsx
+++ b/01.Code/PMIT_bakstage/src/main/resources/configfilemodel/scoreTemplate.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29A48F46-B900-4F48-A382-5D639A2FBA57}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,40 +14,56 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>软通工号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>个人成绩信息表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开班ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>培训</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>注：表格中的日期格式统一按照yyyy-MM-dd格式</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>个人成绩信息表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开班ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>培训</t>
+    <t>事务ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>维度ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>评价人ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>评价</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -120,7 +135,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -143,44 +158,98 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -200,7 +269,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -275,23 +344,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -327,23 +379,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -519,202 +554,119 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.109375" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.21875" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.33203125" style="11" customWidth="1"/>
-    <col min="5" max="5" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.125" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.375" style="6" customWidth="1"/>
+    <col min="5" max="5" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="41.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="12"/>
+    </row>
+    <row r="2" spans="1:8" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="15"/>
     </row>
-    <row r="2" spans="1:8" ht="22.2" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-    </row>
-    <row r="3" spans="1:8" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3"/>
-      <c r="F3"/>
-      <c r="G3"/>
-      <c r="H3"/>
+      <c r="E3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="8">
         <v>10008617</v>
       </c>
-      <c r="B4" s="12">
+      <c r="B4" s="9"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="8">
+        <v>1</v>
+      </c>
+      <c r="F4" s="9">
+        <v>1</v>
+      </c>
+      <c r="G4" s="10">
         <v>15</v>
       </c>
-      <c r="C4" s="6">
-        <v>66</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>6</v>
+      <c r="H4" s="9">
+        <v>10008617</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="8">
-        <v>10008617</v>
-      </c>
-      <c r="B5" s="12">
-        <v>14</v>
-      </c>
-      <c r="C5" s="6">
-        <v>66</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="8">
-        <v>10008618</v>
-      </c>
-      <c r="B6" s="12">
-        <v>14</v>
-      </c>
-      <c r="C6" s="6">
+        <v>10008622</v>
+      </c>
+      <c r="B5" s="9">
+        <v>15</v>
+      </c>
+      <c r="C5" s="10">
         <v>77</v>
       </c>
-      <c r="D6" s="10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="8">
-        <v>10008619</v>
-      </c>
-      <c r="B7" s="12">
-        <v>14</v>
-      </c>
-      <c r="C7" s="6">
-        <v>77</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="8">
-        <v>10008620</v>
-      </c>
-      <c r="B8" s="12">
-        <v>15</v>
-      </c>
-      <c r="C8" s="6">
-        <v>77</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="8">
-        <v>10008621</v>
-      </c>
-      <c r="B9" s="12">
-        <v>15</v>
-      </c>
-      <c r="C9" s="6">
-        <v>77</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="8">
-        <v>10008622</v>
-      </c>
-      <c r="B10" s="12">
-        <v>15</v>
-      </c>
-      <c r="C10" s="6">
-        <v>77</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="8">
-        <v>10008623</v>
-      </c>
-      <c r="B11" s="12">
-        <v>15</v>
-      </c>
-      <c r="C11" s="6">
-        <v>77</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="8">
-        <v>10008624</v>
-      </c>
-      <c r="B12" s="12">
-        <v>15</v>
-      </c>
-      <c r="C12" s="6">
-        <v>77</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="8">
-        <v>10008625</v>
-      </c>
-      <c r="B13" s="12">
-        <v>15</v>
-      </c>
-      <c r="C13" s="6">
-        <v>77</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>6</v>
-      </c>
+      <c r="D5" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="8"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
